--- a/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
+++ b/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GeoProject\LabReport\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B580CA87-5375-4F3B-BE86-FD7B5791AD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2171F7B-01FD-48C7-B733-235519805B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="306" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Method</t>
   </si>
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int ,length of the hash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +379,192 @@
   </si>
   <si>
     <t>Coverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Code'!A30</t>
+  </si>
+  <si>
+    <t>CoverageLongs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFG!A32</t>
+  </si>
+  <si>
+    <t>New Coverage object by constructor with parameters:
+1. Set&lt;String&gt; hashes,
+2. double ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Coverage object by constructor with parameters:
+1. long[] hashes,
+2. int count,
+3. double ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1 :{new long[] {}, 0, 1.0}
+T2 :{new long[] {100,10000}, 2, 1.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeoHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromLongToString(long hash)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long, hash</t>
+  </si>
+  <si>
+    <t>String, result</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Code'!M29</t>
+  </si>
+  <si>
+    <t>{P1,P2,P3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1 : {n1,n2,n4}
+P2 : {n1,n2,n3,n4}
+P3 : {n1,n2,n3,n5,n6,n7,n6,n8}
+P4 : {n1,n2,n3,n5,n6,n8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{n1,n2,n3,n4,n5,n6,n7,n8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{&lt;n1,n2&gt;,&lt;n2,n3&gt;
+,&lt;n2,n4&gt;,&lt;n3,n4&gt;,&lt;n3,n5&gt;
+,&lt;n5,n6&gt;,&lt;n6,n7&gt;
+,&lt;n7,n6&gt;,&lt;n6,n8&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1:{0}
+T2:{13}
+T3:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1 covers P1
+T2 covers P2
+T3 covers P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static String gridAsString(String hash,
+                                  int fromRight,
+                                  int fromBottom,
+                                  int toRight,
+                                  int toBottom,
+                                  Set&lt;String&gt; highlightThese)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. String hash,
+2. int fromRight,
+3. int fromBottom,
+4. int toRight,
+5. int toBottom,
+6. Set&lt;String&gt; highlightThese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String representation of grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFG!J1</t>
+  </si>
+  <si>
+    <t>Source Code'!A49</t>
+  </si>
+  <si>
+    <t>CFG!O1</t>
+  </si>
+  <si>
+    <t>P1: {n1,n2,n3,n13}, 
+P2: {n1,n2,n3,n5,n6,n12,n4,n3,n13}, 
+P3: {n1,n2,n3,n5,n6,n8,n9,n11,n7,n6,n12,n4,n3,n13},
+P4: {n1,n2,n3,n5,n6,n8,n9,n10,n11,n7,n6,n12,n4,n3,n13}</t>
+  </si>
+  <si>
+    <t>{n1,n2,n3,n4,n5,n6,n7,
+n8,n9,n10,n11,n12,n13
+}</t>
+  </si>
+  <si>
+    <t>{&lt;n1,n2&gt;,&lt;n2,n3&gt;,
+&lt;n3,n13&gt;,&lt;n3,n5&gt;,
+&lt;n5,n6&gt;,&lt;n6,n8&gt;,
+&lt;n8,n9&gt;,&lt;n9,n10&gt;,
+&lt;n9,n11&gt;,&lt;n10,n11&gt;,&lt;n11,n7&gt;,&lt;n7,n6&gt;,
+&lt;n6,n12&gt;,n12,n4&gt;,
+&lt;n4,n3&gt;,
+}</t>
+  </si>
+  <si>
+    <t>{P1, P2, P3, P4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1 covers P1
+T2 covers P2
+T3 covers P3
+T4 covers P4 
+</t>
+  </si>
+  <si>
+    <t>T1:{ "dr",0,1,0,0, Sets.newHashSet("dr")}
+T2:{"dr",1,0,0,0, Sets.newHashSet("dr")}
+T3:{"dr",0,0,0,0, Sets.newHashSet("d")}
+T4:{"dr",0,0,0,0, Sets.newHashSet("dr")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heightDegrees(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. int n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height in degrees of the geohash with length.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Code'!N45</t>
+  </si>
+  <si>
+    <t>CFG!AF1</t>
+  </si>
+  <si>
+    <t>T1 : {13}
+T2 : {12}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +724,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,6 +885,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82959</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1451EACD-E3C5-E453-63DD-D46074FC80DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="175260" y="3535680"/>
+          <a:ext cx="6003699" cy="2849213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525126</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>204026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561785</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE4C69F-C730-4567-0A65-B29702BFED53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7230726" y="2672906"/>
+          <a:ext cx="6742259" cy="3118294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>172016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299110</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AB5D36-79A8-5D1B-E00F-84964E15162D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="6344216"/>
+          <a:ext cx="8124850" cy="3759904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>287322</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>187714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D14BC45-1131-DFB2-76EA-AB44158E0BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023860" y="6530399"/>
+          <a:ext cx="6893862" cy="2709875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -737,6 +1146,182 @@
         <a:xfrm>
           <a:off x="2705100" y="134197"/>
           <a:ext cx="2277951" cy="2151398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>118423</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC67A5C-F42C-4B10-F74F-4491690241CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3474720"/>
+          <a:ext cx="4271323" cy="2963775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192733</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229855</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E38132-7307-B2DC-88B7-3F531E5DC858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5679133" y="7620"/>
+          <a:ext cx="2475522" cy="5391642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>447342</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BE2C29-83D7-B900-ED2E-1E04A17863CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8625840" y="0"/>
+          <a:ext cx="7671102" cy="6830545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06AE2238-3AE9-726E-DE6D-D20969850356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16725900" y="74507"/>
+          <a:ext cx="2788921" cy="2272454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1011,24 +1596,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
     <col min="3" max="3" width="49.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="25.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="12" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="23.21875" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
     <col min="13" max="13" width="21.77734375" customWidth="1"/>
     <col min="14" max="14" width="18.77734375" customWidth="1"/>
     <col min="15" max="15" width="29" customWidth="1"/>
@@ -1144,37 +1731,37 @@
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
@@ -1186,14 +1773,211 @@
         <v>22</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:17" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="156" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,9 +1986,18 @@
     <hyperlink ref="H2" location="CFG!A1" display="CFG with link(find)" xr:uid="{A7704F1B-B442-4949-99A3-472339CEF28E}"/>
     <hyperlink ref="G3" location="'Source Code'!M1" display="'Source Code'!M1" xr:uid="{2CB4914E-F32F-4AE3-A4B7-EFA4562B5D29}"/>
     <hyperlink ref="H3" location="CFG!E1" display="CFG!E1" xr:uid="{A0CEC1D9-CC53-4FF0-90FA-A8CE042493AF}"/>
+    <hyperlink ref="G4" location="'Source Code'!A30" display="'Source Code'!A30" xr:uid="{85B6F056-8063-4794-9DDF-7B2ED648FF25}"/>
+    <hyperlink ref="H4" location="CFG!A32" display="CFG!A32" xr:uid="{BEB3473F-585B-4B91-BE2F-3A00919CEBB9}"/>
+    <hyperlink ref="G5" location="'Source Code'!M29" display="'Source Code'!M29" xr:uid="{9F2EB18B-818A-468B-8BCC-FE6127170D83}"/>
+    <hyperlink ref="H5" location="CFG!J1" display="CFG!J1" xr:uid="{98DEE23E-37A8-42F0-98C2-A8F9C299BD36}"/>
+    <hyperlink ref="G6" location="'Source Code'!A49" display="'Source Code'!A49" xr:uid="{0FEDE99E-B5E9-43FD-B064-7A235B689703}"/>
+    <hyperlink ref="H6" location="CFG!O1" display="CFG!O1" xr:uid="{7A2EF88D-B679-48E4-95B8-AD327A33A280}"/>
+    <hyperlink ref="B7" r:id="rId1" location="L684" display="http://localhost:63342/geo/build/jacocoHtml/com.github.davidmoten.geo/GeoHash.java.html - L684" xr:uid="{B7EA7A37-38F6-4FAD-8497-FA99361CE677}"/>
+    <hyperlink ref="G7" location="'Source Code'!N45" display="'Source Code'!N45" xr:uid="{B391355B-04A1-4D8E-9B5D-CE4590C0A1B9}"/>
+    <hyperlink ref="H7" location="CFG!AF1" display="CFG!AF1" xr:uid="{6C68760F-4D97-43AC-8BE3-EF8B0A086EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1212,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238CDF08-D7CC-494C-BB07-9357DB81161E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1228,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A93CC1-6B5C-4345-9EE5-CE14432C52A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
+++ b/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GeoProject\LabReport\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2171F7B-01FD-48C7-B733-235519805B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF0680-388A-4EC9-99B9-B44CCF0373C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="306" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1598,9 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2005,9 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238CDF08-D7CC-494C-BB07-9357DB81161E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2021,9 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A93CC1-6B5C-4345-9EE5-CE14432C52A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
+++ b/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GeoProject\LabReport\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF0680-388A-4EC9-99B9-B44CCF0373C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D06A68-43FC-4ADD-8BC6-57B8EB74DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1598,7 +1598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>

--- a/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
+++ b/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GeoProject\LabReport\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D06A68-43FC-4ADD-8BC6-57B8EB74DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE413E18-1871-40A2-B7D3-8B67CB35F00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1598,9 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
